--- a/Hamburger.xlsx
+++ b/Hamburger.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>Repository</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>service to add and remove items, clean bucket</t>
-  </si>
-  <si>
-    <t>mock it as a map in app</t>
   </si>
   <si>
     <t>store it in cookies</t>
@@ -611,7 +608,7 @@
   <dimension ref="B2:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -635,7 +632,7 @@
     <row r="3" spans="2:16" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>10</v>
@@ -696,10 +693,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
@@ -723,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>8</v>
@@ -775,18 +772,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -807,13 +802,13 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="I9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -833,10 +828,10 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -859,10 +854,10 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="3"/>
@@ -875,19 +870,19 @@
     </row>
     <row r="12" spans="2:16" ht="50" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>28</v>
-      </c>
       <c r="F12" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>

--- a/Hamburger.xlsx
+++ b/Hamburger.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Repository</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>mock bucket as a map in app</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Exceptions</t>
   </si>
 </sst>
 </file>
@@ -608,7 +614,7 @@
   <dimension ref="B2:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -750,8 +756,12 @@
         <v>7</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
         <v>18</v>

--- a/Hamburger.xlsx
+++ b/Hamburger.xlsx
@@ -146,13 +146,13 @@
     <t>add application.properties file</t>
   </si>
   <si>
-    <t>mock bucket as a map in app</t>
-  </si>
-  <si>
     <t>Validation</t>
   </si>
   <si>
     <t>Exceptions</t>
+  </si>
+  <si>
+    <t>mock bucket as a list in app</t>
   </si>
 </sst>
 </file>
@@ -614,7 +614,7 @@
   <dimension ref="B2:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -702,7 +702,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
@@ -757,10 +757,10 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">

--- a/Hamburger.xlsx
+++ b/Hamburger.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Repository</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Integration Tests</t>
   </si>
   <si>
-    <t>Docker</t>
-  </si>
-  <si>
     <t>Maven SpringBoot</t>
   </si>
   <si>
@@ -137,12 +134,6 @@
     <t>add docker option</t>
   </si>
   <si>
-    <t>docker for backend and docker compose</t>
-  </si>
-  <si>
-    <t>docker for sql server</t>
-  </si>
-  <si>
     <t>add application.properties file</t>
   </si>
   <si>
@@ -153,6 +144,12 @@
   </si>
   <si>
     <t>mock bucket as a list in app</t>
+  </si>
+  <si>
+    <t>docker compose for sql server &amp; backend</t>
+  </si>
+  <si>
+    <t>repository in H2</t>
   </si>
 </sst>
 </file>
@@ -611,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P12"/>
+  <dimension ref="B2:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -627,7 +624,8 @@
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.83203125" style="1" customWidth="1"/>
-    <col min="9" max="12" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" style="1" customWidth="1"/>
+    <col min="10" max="12" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -638,25 +636,25 @@
     <row r="3" spans="2:16" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="13" t="s">
         <v>14</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>15</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -674,15 +672,17 @@
         <v>1</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -699,14 +699,14 @@
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -726,14 +726,14 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -745,7 +745,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="2:16" ht="65" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" ht="49" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -753,18 +753,18 @@
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -776,7 +776,7 @@
     </row>
     <row r="8" spans="2:16" ht="49" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>1</v>
@@ -785,13 +785,13 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -812,13 +812,13 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="I9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -828,22 +828,22 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="2:16" ht="49" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" ht="33" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="F10" s="5"/>
       <c r="G10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="I10" s="5"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -853,23 +853,27 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="2:16" ht="33" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" ht="50" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="5"/>
+      <c r="D11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -878,33 +882,6 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="2:16" ht="50" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Hamburger.xlsx
+++ b/Hamburger.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Repository</t>
   </si>
@@ -107,9 +107,6 @@
     <t>lombok</t>
   </si>
   <si>
-    <t>logging</t>
-  </si>
-  <si>
     <t>cotroller for return items</t>
   </si>
   <si>
@@ -134,22 +131,16 @@
     <t>add docker option</t>
   </si>
   <si>
-    <t>add application.properties file</t>
-  </si>
-  <si>
-    <t>Validation</t>
-  </si>
-  <si>
-    <t>Exceptions</t>
-  </si>
-  <si>
     <t>mock bucket as a list in app</t>
   </si>
   <si>
     <t>docker compose for sql server &amp; backend</t>
   </si>
   <si>
-    <t>repository in H2</t>
+    <t>logging &amp; application.properties</t>
+  </si>
+  <si>
+    <t>Exceptions &amp; Validation</t>
   </si>
 </sst>
 </file>
@@ -611,7 +602,7 @@
   <dimension ref="B2:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -620,7 +611,7 @@
     <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.83203125" style="1" customWidth="1"/>
@@ -636,7 +627,7 @@
     <row r="3" spans="2:16" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>9</v>
@@ -676,13 +667,11 @@
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="I4" s="11"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -699,10 +688,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
@@ -726,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>7</v>
@@ -756,9 +745,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
         <v>37</v>
       </c>
@@ -812,13 +799,13 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="I9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -839,10 +826,10 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="3"/>
@@ -864,16 +851,14 @@
         <v>25</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>35</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="I11" s="12"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>

--- a/Hamburger.xlsx
+++ b/Hamburger.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Repository</t>
   </si>
@@ -107,6 +107,9 @@
     <t>lombok</t>
   </si>
   <si>
+    <t>logging</t>
+  </si>
+  <si>
     <t>cotroller for return items</t>
   </si>
   <si>
@@ -125,22 +128,31 @@
     <t>mock payment service</t>
   </si>
   <si>
-    <t>add tests</t>
-  </si>
-  <si>
     <t>add docker option</t>
   </si>
   <si>
+    <t>add application.properties file</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Exceptions</t>
+  </si>
+  <si>
     <t>mock bucket as a list in app</t>
   </si>
   <si>
     <t>docker compose for sql server &amp; backend</t>
   </si>
   <si>
-    <t>logging &amp; application.properties</t>
-  </si>
-  <si>
-    <t>Exceptions &amp; Validation</t>
+    <t>repository in H2</t>
+  </si>
+  <si>
+    <t>7. Iteration</t>
+  </si>
+  <si>
+    <t>add integration tests</t>
   </si>
 </sst>
 </file>
@@ -602,7 +614,7 @@
   <dimension ref="B2:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -611,12 +623,13 @@
     <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" style="1" customWidth="1"/>
-    <col min="10" max="12" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="1" customWidth="1"/>
+    <col min="11" max="12" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -627,7 +640,7 @@
     <row r="3" spans="2:16" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>9</v>
@@ -647,7 +660,9 @@
       <c r="I3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -667,12 +682,14 @@
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="3"/>
+      <c r="J4" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -688,10 +705,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
@@ -699,7 +716,7 @@
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="3"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -715,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>7</v>
@@ -726,7 +743,7 @@
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="3"/>
+      <c r="J6" s="5"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -734,7 +751,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="2:16" ht="49" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" ht="33" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -745,15 +762,17 @@
         <v>6</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="G7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="5"/>
+      <c r="J7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -774,13 +793,13 @@
       <c r="G8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -798,16 +817,16 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="3"/>
+      <c r="J9" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -826,13 +845,13 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="3"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="5"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -851,15 +870,17 @@
         <v>25</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>

--- a/Hamburger.xlsx
+++ b/Hamburger.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>Repository</t>
   </si>
@@ -107,9 +107,6 @@
     <t>lombok</t>
   </si>
   <si>
-    <t>logging</t>
-  </si>
-  <si>
     <t>cotroller for return items</t>
   </si>
   <si>
@@ -131,28 +128,25 @@
     <t>add docker option</t>
   </si>
   <si>
-    <t>add application.properties file</t>
-  </si>
-  <si>
-    <t>Validation</t>
-  </si>
-  <si>
-    <t>Exceptions</t>
-  </si>
-  <si>
     <t>mock bucket as a list in app</t>
   </si>
   <si>
     <t>docker compose for sql server &amp; backend</t>
   </si>
   <si>
-    <t>repository in H2</t>
-  </si>
-  <si>
     <t>7. Iteration</t>
   </si>
   <si>
     <t>add integration tests</t>
+  </si>
+  <si>
+    <t>logging &amp; application.properties</t>
+  </si>
+  <si>
+    <t>README.md</t>
+  </si>
+  <si>
+    <t>Exceptions &amp; Validation</t>
   </si>
 </sst>
 </file>
@@ -614,7 +608,7 @@
   <dimension ref="B2:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -623,7 +617,7 @@
     <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.83203125" style="1" customWidth="1"/>
@@ -640,7 +634,7 @@
     <row r="3" spans="2:16" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>9</v>
@@ -661,7 +655,7 @@
         <v>14</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -682,14 +676,12 @@
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="J4" s="11"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -705,10 +697,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
@@ -732,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>7</v>
@@ -762,11 +754,9 @@
         <v>6</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -819,13 +809,13 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -845,11 +835,11 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="3"/>
@@ -870,17 +860,17 @@
         <v>25</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="12"/>
+      <c r="G11" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
-      <c r="J11" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="J11" s="12"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>

--- a/Hamburger.xlsx
+++ b/Hamburger.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Repository</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Exceptions &amp; Validation</t>
+  </si>
+  <si>
+    <t>Promotion</t>
   </si>
 </sst>
 </file>
@@ -608,7 +611,7 @@
   <dimension ref="B2:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -706,7 +709,9 @@
       <c r="G5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="3"/>

--- a/Hamburger.xlsx
+++ b/Hamburger.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>Repository</t>
   </si>
@@ -150,6 +150,15 @@
   </si>
   <si>
     <t>Promotion</t>
+  </si>
+  <si>
+    <t>add payment</t>
+  </si>
+  <si>
+    <t>deal with receipt number</t>
+  </si>
+  <si>
+    <t>STOCK!</t>
   </si>
 </sst>
 </file>
@@ -608,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P11"/>
+  <dimension ref="B2:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -883,6 +892,21 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
+    <row r="14" spans="2:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="G14" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="G15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="G16" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Hamburger.xlsx
+++ b/Hamburger.xlsx
@@ -149,9 +149,6 @@
     <t>Exceptions &amp; Validation</t>
   </si>
   <si>
-    <t>Promotion</t>
-  </si>
-  <si>
     <t>add payment</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>STOCK!</t>
+  </si>
+  <si>
+    <t>Promotion TDD</t>
   </si>
 </sst>
 </file>
@@ -620,7 +620,7 @@
   <dimension ref="B2:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -719,7 +719,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -848,10 +848,10 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="5"/>
       <c r="I10" s="5" t="s">
         <v>31</v>
       </c>
@@ -894,17 +894,17 @@
     </row>
     <row r="14" spans="2:16" ht="32" x14ac:dyDescent="0.2">
       <c r="G14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="G15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="G16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Hamburger.xlsx
+++ b/Hamburger.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>Repository</t>
   </si>
@@ -147,6 +147,18 @@
   </si>
   <si>
     <t>Exceptions &amp; Validation</t>
+  </si>
+  <si>
+    <t>add payment</t>
+  </si>
+  <si>
+    <t>deal with receipt number</t>
+  </si>
+  <si>
+    <t>STOCK!</t>
+  </si>
+  <si>
+    <t>Promotion TDD</t>
   </si>
 </sst>
 </file>
@@ -605,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P11"/>
+  <dimension ref="B2:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -706,7 +718,9 @@
       <c r="G5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="3"/>
@@ -834,10 +848,10 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="5"/>
       <c r="I10" s="5" t="s">
         <v>31</v>
       </c>
@@ -878,6 +892,21 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
+    <row r="14" spans="2:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="G14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="G15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="G16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Hamburger.xlsx
+++ b/Hamburger.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>Repository</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>Exceptions &amp; Validation</t>
-  </si>
-  <si>
-    <t>add payment</t>
   </si>
   <si>
     <t>deal with receipt number</t>
@@ -617,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P16"/>
+  <dimension ref="B2:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -719,7 +716,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -894,17 +891,10 @@
     </row>
     <row r="14" spans="2:16" ht="32" x14ac:dyDescent="0.2">
       <c r="G14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="G15" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="G16" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Hamburger.xlsx
+++ b/Hamburger.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Repository</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>deal with receipt number</t>
-  </si>
-  <si>
-    <t>STOCK!</t>
   </si>
   <si>
     <t>Promotion TDD</t>
@@ -716,7 +713,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -893,9 +890,6 @@
       <c r="G14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>41</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Hamburger.xlsx
+++ b/Hamburger.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>Repository</t>
   </si>
@@ -125,9 +125,6 @@
     <t>mock payment service</t>
   </si>
   <si>
-    <t>add docker option</t>
-  </si>
-  <si>
     <t>mock bucket as a list in app</t>
   </si>
   <si>
@@ -153,6 +150,12 @@
   </si>
   <si>
     <t>Promotion TDD</t>
+  </si>
+  <si>
+    <t>8. Iteration</t>
+  </si>
+  <si>
+    <t>add docker payment service</t>
   </si>
 </sst>
 </file>
@@ -614,7 +617,7 @@
   <dimension ref="B2:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -628,8 +631,8 @@
     <col min="7" max="7" width="17.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5" style="1" customWidth="1"/>
-    <col min="11" max="12" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -661,9 +664,11 @@
         <v>14</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -688,7 +693,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="3"/>
+      <c r="K4" s="11"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -706,18 +711,18 @@
         <v>29</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="3"/>
+      <c r="K5" s="5"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -744,7 +749,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="3"/>
+      <c r="K6" s="5"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -764,14 +769,14 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -792,13 +797,13 @@
         <v>21</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -816,16 +821,16 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="H9" s="5"/>
       <c r="I9" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -846,11 +851,11 @@
       <c r="H10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="5"/>
+      <c r="J10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="3"/>
+      <c r="K10" s="5"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -868,18 +873,18 @@
         <v>25</v>
       </c>
       <c r="E11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>38</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="3"/>
+      <c r="K11" s="12"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -888,7 +893,7 @@
     </row>
     <row r="14" spans="2:16" ht="32" x14ac:dyDescent="0.2">
       <c r="G14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Hamburger.xlsx
+++ b/Hamburger.xlsx
@@ -617,7 +617,7 @@
   <dimension ref="B2:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Hamburger.xlsx
+++ b/Hamburger.xlsx
@@ -149,13 +149,13 @@
     <t>deal with receipt number</t>
   </si>
   <si>
-    <t>Promotion TDD</t>
-  </si>
-  <si>
     <t>8. Iteration</t>
   </si>
   <si>
     <t>add docker payment service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promotion </t>
   </si>
 </sst>
 </file>
@@ -617,7 +617,7 @@
   <dimension ref="B2:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -667,7 +667,7 @@
         <v>34</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -718,7 +718,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -826,7 +826,7 @@
         <v>35</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>27</v>

--- a/Hamburger.xlsx
+++ b/Hamburger.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>Repository</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t xml:space="preserve">Promotion </t>
+  </si>
+  <si>
+    <t>priced individually</t>
   </si>
 </sst>
 </file>
@@ -617,7 +620,7 @@
   <dimension ref="B2:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -721,7 +724,9 @@
         <v>42</v>
       </c>
       <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="J5" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="K5" s="5"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>

--- a/Hamburger.xlsx
+++ b/Hamburger.xlsx
@@ -146,9 +146,6 @@
     <t>Exceptions &amp; Validation</t>
   </si>
   <si>
-    <t>deal with receipt number</t>
-  </si>
-  <si>
     <t>8. Iteration</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>priced individually</t>
+  </si>
+  <si>
+    <t>deal with generated numbers</t>
   </si>
 </sst>
 </file>
@@ -620,7 +620,7 @@
   <dimension ref="B2:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -670,7 +670,7 @@
         <v>34</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -721,11 +721,11 @@
         <v>20</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="3"/>
@@ -831,7 +831,7 @@
         <v>35</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>27</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="14" spans="2:16" ht="32" x14ac:dyDescent="0.2">
       <c r="G14" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Hamburger.xlsx
+++ b/Hamburger.xlsx
@@ -125,9 +125,6 @@
     <t>mock payment service</t>
   </si>
   <si>
-    <t>add docker option</t>
-  </si>
-  <si>
     <t>mock bucket as a list in app</t>
   </si>
   <si>
@@ -149,16 +146,19 @@
     <t>Exceptions &amp; Validation</t>
   </si>
   <si>
-    <t>add payment</t>
-  </si>
-  <si>
-    <t>deal with receipt number</t>
-  </si>
-  <si>
-    <t>STOCK!</t>
-  </si>
-  <si>
-    <t>Promotion TDD</t>
+    <t>8. Iteration</t>
+  </si>
+  <si>
+    <t>add docker payment service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promotion </t>
+  </si>
+  <si>
+    <t>priced individually</t>
+  </si>
+  <si>
+    <t>deal with generated numbers</t>
   </si>
 </sst>
 </file>
@@ -617,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P16"/>
+  <dimension ref="B2:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -634,8 +634,8 @@
     <col min="7" max="7" width="17.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5" style="1" customWidth="1"/>
-    <col min="11" max="12" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -667,9 +667,11 @@
         <v>14</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -694,7 +696,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="3"/>
+      <c r="K4" s="11"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -712,18 +714,20 @@
         <v>29</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="3"/>
+      <c r="J5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="5"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -750,7 +754,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="3"/>
+      <c r="K6" s="5"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -770,14 +774,14 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -798,13 +802,13 @@
         <v>21</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -822,16 +826,16 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="H9" s="5"/>
       <c r="I9" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -852,11 +856,11 @@
       <c r="H10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="5"/>
+      <c r="J10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="3"/>
+      <c r="K10" s="5"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -874,18 +878,18 @@
         <v>25</v>
       </c>
       <c r="E11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>38</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="3"/>
+      <c r="K11" s="12"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -894,17 +898,7 @@
     </row>
     <row r="14" spans="2:16" ht="32" x14ac:dyDescent="0.2">
       <c r="G14" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="G15" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="G16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
